--- a/data/pca/factorExposure/factorExposure_2012-02-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-02-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01700473836734537</v>
+        <v>0.01622344423085788</v>
       </c>
       <c r="C2">
-        <v>0.02943865889910277</v>
+        <v>-0.02458966554464681</v>
       </c>
       <c r="D2">
-        <v>-0.004477949246554098</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.007122410912807429</v>
+      </c>
+      <c r="E2">
+        <v>-0.01575949674467273</v>
+      </c>
+      <c r="F2">
+        <v>-0.01394010839974646</v>
+      </c>
+      <c r="G2">
+        <v>-0.01611150946995096</v>
+      </c>
+      <c r="H2">
+        <v>0.05111001660344204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.07417448316617622</v>
+        <v>0.0882007360861681</v>
       </c>
       <c r="C4">
-        <v>0.05348665433602357</v>
+        <v>-0.04075436943231298</v>
       </c>
       <c r="D4">
-        <v>-0.08096902025487938</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06472497948000268</v>
+      </c>
+      <c r="E4">
+        <v>-0.01048864527559087</v>
+      </c>
+      <c r="F4">
+        <v>-0.03866106030143203</v>
+      </c>
+      <c r="G4">
+        <v>-0.003621080916533779</v>
+      </c>
+      <c r="H4">
+        <v>-0.04156913312738345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.1104793855402176</v>
+        <v>0.1199263515865763</v>
       </c>
       <c r="C6">
-        <v>0.05248905468459159</v>
+        <v>-0.03444383021606587</v>
       </c>
       <c r="D6">
-        <v>0.0006338021379294229</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01316765680053743</v>
+      </c>
+      <c r="E6">
+        <v>0.01700657470198577</v>
+      </c>
+      <c r="F6">
+        <v>-0.05581169183881908</v>
+      </c>
+      <c r="G6">
+        <v>-0.03408137888464033</v>
+      </c>
+      <c r="H6">
+        <v>0.118681120182157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.05216882083127432</v>
+        <v>0.06445130910324678</v>
       </c>
       <c r="C7">
-        <v>0.02690173679708739</v>
+        <v>-0.01804693189063586</v>
       </c>
       <c r="D7">
-        <v>-0.04514958194455961</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.04556184366902198</v>
+      </c>
+      <c r="E7">
+        <v>-0.03530028987358944</v>
+      </c>
+      <c r="F7">
+        <v>-0.03511290575693481</v>
+      </c>
+      <c r="G7">
+        <v>0.03808684921390281</v>
+      </c>
+      <c r="H7">
+        <v>-0.007545433148705324</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.03992065889019995</v>
+        <v>0.04138266459239868</v>
       </c>
       <c r="C8">
-        <v>0.01497220725214865</v>
+        <v>-0.01088268614290432</v>
       </c>
       <c r="D8">
-        <v>-0.06042010742713008</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02339935456742526</v>
+      </c>
+      <c r="E8">
+        <v>-0.02307324995972281</v>
+      </c>
+      <c r="F8">
+        <v>-0.05609060252095908</v>
+      </c>
+      <c r="G8">
+        <v>-0.05847322551308379</v>
+      </c>
+      <c r="H8">
+        <v>0.00886883275375047</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.06945466447924949</v>
+        <v>0.07992237408325621</v>
       </c>
       <c r="C9">
-        <v>0.04202413825390901</v>
+        <v>-0.02933138271932886</v>
       </c>
       <c r="D9">
-        <v>-0.07076585659697718</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.06158213666600452</v>
+      </c>
+      <c r="E9">
+        <v>-0.03056277489236968</v>
+      </c>
+      <c r="F9">
+        <v>-0.03564782378014667</v>
+      </c>
+      <c r="G9">
+        <v>-0.0100504823756035</v>
+      </c>
+      <c r="H9">
+        <v>-0.04928415803630559</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.02939861815462348</v>
+        <v>0.03378849691522491</v>
       </c>
       <c r="C10">
-        <v>0.02396160432305787</v>
+        <v>-0.04100867863248644</v>
       </c>
       <c r="D10">
-        <v>0.1685935757913983</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1715465483600171</v>
+      </c>
+      <c r="E10">
+        <v>-0.04045778769264748</v>
+      </c>
+      <c r="F10">
+        <v>-0.05037519104737265</v>
+      </c>
+      <c r="G10">
+        <v>0.02425742481238622</v>
+      </c>
+      <c r="H10">
+        <v>0.03676757229597966</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.07294045027868414</v>
+        <v>0.07725557436735872</v>
       </c>
       <c r="C11">
-        <v>0.04437531693360536</v>
+        <v>-0.02641104060809579</v>
       </c>
       <c r="D11">
-        <v>-0.05944124045537838</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.06231530119122534</v>
+      </c>
+      <c r="E11">
+        <v>0.00431880782814672</v>
+      </c>
+      <c r="F11">
+        <v>-0.02995462918569056</v>
+      </c>
+      <c r="G11">
+        <v>-0.0009067585942742833</v>
+      </c>
+      <c r="H11">
+        <v>-0.08706020339187932</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.06026774508318437</v>
+        <v>0.06909835046180023</v>
       </c>
       <c r="C12">
-        <v>0.05177786912850649</v>
+        <v>-0.03743364563014363</v>
       </c>
       <c r="D12">
-        <v>-0.04838641425659754</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.04730004594781204</v>
+      </c>
+      <c r="E12">
+        <v>-0.01373552196302633</v>
+      </c>
+      <c r="F12">
+        <v>-0.02203115170557609</v>
+      </c>
+      <c r="G12">
+        <v>-0.003217986111792561</v>
+      </c>
+      <c r="H12">
+        <v>-0.04206665383657863</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.06232446752199056</v>
+        <v>0.06542369757363257</v>
       </c>
       <c r="C13">
-        <v>0.03599588967950075</v>
+        <v>-0.02206420966652697</v>
       </c>
       <c r="D13">
-        <v>-0.06014954162431214</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04198360494326606</v>
+      </c>
+      <c r="E13">
+        <v>-0.01658196607110713</v>
+      </c>
+      <c r="F13">
+        <v>-0.00992634121576173</v>
+      </c>
+      <c r="G13">
+        <v>0.00413341313292871</v>
+      </c>
+      <c r="H13">
+        <v>-0.05405376649845974</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.03363644031248205</v>
+        <v>0.04052345294962589</v>
       </c>
       <c r="C14">
-        <v>0.03172307102165148</v>
+        <v>-0.02822035288791108</v>
       </c>
       <c r="D14">
-        <v>-0.002556608869221421</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.009654656479336403</v>
+      </c>
+      <c r="E14">
+        <v>-0.03147020058525642</v>
+      </c>
+      <c r="F14">
+        <v>-0.01456708784465456</v>
+      </c>
+      <c r="G14">
+        <v>-0.006932048451297839</v>
+      </c>
+      <c r="H14">
+        <v>-0.0606016953223611</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.04066601096078514</v>
+        <v>0.04054872992194391</v>
       </c>
       <c r="C15">
-        <v>0.009423766580417938</v>
+        <v>-0.003608520839516503</v>
       </c>
       <c r="D15">
-        <v>-0.01717637040033634</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.004029751156908042</v>
+      </c>
+      <c r="E15">
+        <v>-0.03397712012704784</v>
+      </c>
+      <c r="F15">
+        <v>0.0002884403279243643</v>
+      </c>
+      <c r="G15">
+        <v>-0.02487131234460125</v>
+      </c>
+      <c r="H15">
+        <v>-0.03739901171378562</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.06180903348649858</v>
+        <v>0.0715815989317606</v>
       </c>
       <c r="C16">
-        <v>0.04139053651373806</v>
+        <v>-0.02812806448126205</v>
       </c>
       <c r="D16">
-        <v>-0.04821936007021901</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06051285864252329</v>
+      </c>
+      <c r="E16">
+        <v>-0.00454253472968831</v>
+      </c>
+      <c r="F16">
+        <v>-0.02730897450245141</v>
+      </c>
+      <c r="G16">
+        <v>0.003349343559522691</v>
+      </c>
+      <c r="H16">
+        <v>-0.05290979645096854</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.0626425896346141</v>
+        <v>0.06359955079754885</v>
       </c>
       <c r="C20">
-        <v>0.02365048613585947</v>
+        <v>-0.009273647163819251</v>
       </c>
       <c r="D20">
-        <v>-0.05385597789672648</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03817056966786649</v>
+      </c>
+      <c r="E20">
+        <v>-0.0200725691423034</v>
+      </c>
+      <c r="F20">
+        <v>-0.02784604268655462</v>
+      </c>
+      <c r="G20">
+        <v>-0.01595226972040455</v>
+      </c>
+      <c r="H20">
+        <v>-0.0460450122361364</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.02610713199004296</v>
+        <v>0.02626931674158573</v>
       </c>
       <c r="C21">
-        <v>-0.003448903136230229</v>
+        <v>0.01016190302821974</v>
       </c>
       <c r="D21">
-        <v>-0.02767094851553941</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.02517558445525655</v>
+      </c>
+      <c r="E21">
+        <v>-0.04504760683166111</v>
+      </c>
+      <c r="F21">
+        <v>0.01472038230910615</v>
+      </c>
+      <c r="G21">
+        <v>-0.009140009806127041</v>
+      </c>
+      <c r="H21">
+        <v>0.04744323334857454</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.07839970639174444</v>
+        <v>0.07345156085476182</v>
       </c>
       <c r="C22">
-        <v>0.06006911104779075</v>
+        <v>-0.03876196372357772</v>
       </c>
       <c r="D22">
-        <v>-0.1218816911027418</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.08195806097074528</v>
+      </c>
+      <c r="E22">
+        <v>-0.5982471346872476</v>
+      </c>
+      <c r="F22">
+        <v>0.1731225883916146</v>
+      </c>
+      <c r="G22">
+        <v>0.07149417698493224</v>
+      </c>
+      <c r="H22">
+        <v>0.1561276582100995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.07935332014389004</v>
+        <v>0.07419390018085124</v>
       </c>
       <c r="C23">
-        <v>0.05880046029949995</v>
+        <v>-0.03722456053803634</v>
       </c>
       <c r="D23">
-        <v>-0.1234249101122534</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.08290125414115532</v>
+      </c>
+      <c r="E23">
+        <v>-0.5975470610898538</v>
+      </c>
+      <c r="F23">
+        <v>0.1721256960266822</v>
+      </c>
+      <c r="G23">
+        <v>0.07030061651745627</v>
+      </c>
+      <c r="H23">
+        <v>0.1518073068295189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.07407842934438656</v>
+        <v>0.08092745387945349</v>
       </c>
       <c r="C24">
-        <v>0.05164690252173479</v>
+        <v>-0.03463877320143673</v>
       </c>
       <c r="D24">
-        <v>-0.06095456014342085</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06048731475434937</v>
+      </c>
+      <c r="E24">
+        <v>-0.01774230099008345</v>
+      </c>
+      <c r="F24">
+        <v>-0.03650629395837879</v>
+      </c>
+      <c r="G24">
+        <v>-0.01284284584460401</v>
+      </c>
+      <c r="H24">
+        <v>-0.05036705681998745</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.07341300602082894</v>
+        <v>0.07895892777096655</v>
       </c>
       <c r="C25">
-        <v>0.054716318450531</v>
+        <v>-0.03742219981059631</v>
       </c>
       <c r="D25">
-        <v>-0.06772295768567319</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.0523813249643716</v>
+      </c>
+      <c r="E25">
+        <v>-0.01991768547599148</v>
+      </c>
+      <c r="F25">
+        <v>-0.02719469353213536</v>
+      </c>
+      <c r="G25">
+        <v>-0.02036206942101096</v>
+      </c>
+      <c r="H25">
+        <v>-0.05446421354597156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.04591029649964391</v>
+        <v>0.04778668682452444</v>
       </c>
       <c r="C26">
-        <v>0.01032902036938673</v>
+        <v>-0.003538783952393302</v>
       </c>
       <c r="D26">
-        <v>-0.01383824709552189</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.01724329397329911</v>
+      </c>
+      <c r="E26">
+        <v>-0.04749658391943053</v>
+      </c>
+      <c r="F26">
+        <v>-0.02757918652444082</v>
+      </c>
+      <c r="G26">
+        <v>0.008087418464088492</v>
+      </c>
+      <c r="H26">
+        <v>-0.05899714458641088</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.05243834440576713</v>
+        <v>0.06117986589072827</v>
       </c>
       <c r="C28">
-        <v>0.06469622141399373</v>
+        <v>-0.08697294076854815</v>
       </c>
       <c r="D28">
-        <v>0.3100554150693006</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.3061404548957304</v>
+      </c>
+      <c r="E28">
+        <v>-0.03271090547960664</v>
+      </c>
+      <c r="F28">
+        <v>-0.05293735992755678</v>
+      </c>
+      <c r="G28">
+        <v>-0.02846638605812372</v>
+      </c>
+      <c r="H28">
+        <v>0.04337338522577331</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.04212091339182587</v>
+        <v>0.04847617175816803</v>
       </c>
       <c r="C29">
-        <v>0.02889961793319306</v>
+        <v>-0.02488375332908993</v>
       </c>
       <c r="D29">
-        <v>-0.009113841963729665</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.008553375001720641</v>
+      </c>
+      <c r="E29">
+        <v>-0.06092824269870668</v>
+      </c>
+      <c r="F29">
+        <v>-0.009991329609571954</v>
+      </c>
+      <c r="G29">
+        <v>0.008114296026717439</v>
+      </c>
+      <c r="H29">
+        <v>-0.07691324219696194</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.1272849510956368</v>
+        <v>0.1310905525317313</v>
       </c>
       <c r="C30">
-        <v>0.08711666044054481</v>
+        <v>-0.06150787010062526</v>
       </c>
       <c r="D30">
-        <v>-0.1003425057419909</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.06921981194166003</v>
+      </c>
+      <c r="E30">
+        <v>-0.07945596454784451</v>
+      </c>
+      <c r="F30">
+        <v>0.008135996631026883</v>
+      </c>
+      <c r="G30">
+        <v>-0.08192603739489396</v>
+      </c>
+      <c r="H30">
+        <v>0.04335627202799602</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04424532255033791</v>
+        <v>0.04916430111191948</v>
       </c>
       <c r="C31">
-        <v>0.02248775646105326</v>
+        <v>-0.01442790952131003</v>
       </c>
       <c r="D31">
-        <v>-0.02190016084292813</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02751459312363479</v>
+      </c>
+      <c r="E31">
+        <v>-0.0239135240775278</v>
+      </c>
+      <c r="F31">
+        <v>-0.0127992288108725</v>
+      </c>
+      <c r="G31">
+        <v>0.02428092934853904</v>
+      </c>
+      <c r="H31">
+        <v>-0.06404702360157224</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.03852453340313967</v>
+        <v>0.03923265322084586</v>
       </c>
       <c r="C32">
-        <v>0.02886781970367877</v>
+        <v>-0.02350616652688016</v>
       </c>
       <c r="D32">
-        <v>-0.02164957647459744</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.01074257207462837</v>
+      </c>
+      <c r="E32">
+        <v>-0.04836603511206363</v>
+      </c>
+      <c r="F32">
+        <v>0.009667277633734045</v>
+      </c>
+      <c r="G32">
+        <v>-0.02653335124468104</v>
+      </c>
+      <c r="H32">
+        <v>-0.0699398281126008</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.08455477563629321</v>
+        <v>0.09635998596497945</v>
       </c>
       <c r="C33">
-        <v>0.04170389224320267</v>
+        <v>-0.02726857714733461</v>
       </c>
       <c r="D33">
-        <v>-0.05935617176547643</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.04464502752856656</v>
+      </c>
+      <c r="E33">
+        <v>-0.01407793634172575</v>
+      </c>
+      <c r="F33">
+        <v>-0.007384552428576317</v>
+      </c>
+      <c r="G33">
+        <v>0.005853724796456623</v>
+      </c>
+      <c r="H33">
+        <v>-0.05369812548870904</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.05863616582456235</v>
+        <v>0.06408020499738371</v>
       </c>
       <c r="C34">
-        <v>0.02638599756339806</v>
+        <v>-0.01260104775001815</v>
       </c>
       <c r="D34">
-        <v>-0.05742829239120533</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05086399519217916</v>
+      </c>
+      <c r="E34">
+        <v>-0.00769892957548061</v>
+      </c>
+      <c r="F34">
+        <v>-0.01829546044717076</v>
+      </c>
+      <c r="G34">
+        <v>0.00120642095408583</v>
+      </c>
+      <c r="H34">
+        <v>-0.06002292750553868</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.03697363664915616</v>
+        <v>0.03948828465129237</v>
       </c>
       <c r="C35">
-        <v>0.007997291564208574</v>
+        <v>-0.004074088952581399</v>
       </c>
       <c r="D35">
-        <v>-0.01560053071124878</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.009838072385556694</v>
+      </c>
+      <c r="E35">
+        <v>-0.01881417741868962</v>
+      </c>
+      <c r="F35">
+        <v>0.0155394199165226</v>
+      </c>
+      <c r="G35">
+        <v>0.008013669741198076</v>
+      </c>
+      <c r="H35">
+        <v>-0.01675372971415507</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02295862175093684</v>
+        <v>0.02902100864523924</v>
       </c>
       <c r="C36">
-        <v>0.01609925487815606</v>
+        <v>-0.01347501170016185</v>
       </c>
       <c r="D36">
-        <v>-0.02320642548173428</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01577471348070954</v>
+      </c>
+      <c r="E36">
+        <v>-0.0341748328049133</v>
+      </c>
+      <c r="F36">
+        <v>-0.02274945836280647</v>
+      </c>
+      <c r="G36">
+        <v>0.007070806585218305</v>
+      </c>
+      <c r="H36">
+        <v>-0.0489763177004294</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.04137415891762249</v>
+        <v>0.04471889918001983</v>
       </c>
       <c r="C38">
-        <v>0.001535563658235679</v>
+        <v>0.003504337590493725</v>
       </c>
       <c r="D38">
-        <v>-0.01789132208109928</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.01731806895601872</v>
+      </c>
+      <c r="E38">
+        <v>-0.05302332683888436</v>
+      </c>
+      <c r="F38">
+        <v>0.005546890483830455</v>
+      </c>
+      <c r="G38">
+        <v>-0.009882907742857281</v>
+      </c>
+      <c r="H38">
+        <v>-0.03815124063467253</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.09294585597868761</v>
+        <v>0.1022793131114679</v>
       </c>
       <c r="C39">
-        <v>0.07105368086553712</v>
+        <v>-0.05037026289870255</v>
       </c>
       <c r="D39">
-        <v>-0.05714363929748187</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.06233451893732828</v>
+      </c>
+      <c r="E39">
+        <v>-0.004878486042048092</v>
+      </c>
+      <c r="F39">
+        <v>0.00100208517735135</v>
+      </c>
+      <c r="G39">
+        <v>-0.03559900325378463</v>
+      </c>
+      <c r="H39">
+        <v>-0.04524626969384421</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.07750104563203483</v>
+        <v>0.07135303308014859</v>
       </c>
       <c r="C40">
-        <v>0.0343340201964144</v>
+        <v>-0.0157320074319445</v>
       </c>
       <c r="D40">
-        <v>0.002451432212505935</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.008672861779456881</v>
+      </c>
+      <c r="E40">
+        <v>-0.01876403387473422</v>
+      </c>
+      <c r="F40">
+        <v>0.05901460930338654</v>
+      </c>
+      <c r="G40">
+        <v>-0.06025114136610581</v>
+      </c>
+      <c r="H40">
+        <v>0.096125474622395</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.04197976943661359</v>
+        <v>0.04477218098384133</v>
       </c>
       <c r="C41">
-        <v>0.004183254023624411</v>
+        <v>0.002477571547145369</v>
       </c>
       <c r="D41">
-        <v>-0.03468758061204805</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.03236134037544668</v>
+      </c>
+      <c r="E41">
+        <v>0.0003241489394327152</v>
+      </c>
+      <c r="F41">
+        <v>0.01474926799789003</v>
+      </c>
+      <c r="G41">
+        <v>-0.009681658814438165</v>
+      </c>
+      <c r="H41">
+        <v>-0.03521659953320762</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.05093791817263362</v>
+        <v>0.05932880555424409</v>
       </c>
       <c r="C43">
-        <v>0.02540708397616669</v>
+        <v>-0.01812613452867969</v>
       </c>
       <c r="D43">
-        <v>-0.01567126482917329</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02434165386244373</v>
+      </c>
+      <c r="E43">
+        <v>-0.02131695490257649</v>
+      </c>
+      <c r="F43">
+        <v>-0.01276177497354822</v>
+      </c>
+      <c r="G43">
+        <v>0.01720661036303963</v>
+      </c>
+      <c r="H43">
+        <v>-0.05691527748881912</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.09708999009923508</v>
+        <v>0.09816241143171921</v>
       </c>
       <c r="C44">
-        <v>0.08760954697785944</v>
+        <v>-0.06393400774144384</v>
       </c>
       <c r="D44">
-        <v>-0.07845787241515018</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.05569212674847562</v>
+      </c>
+      <c r="E44">
+        <v>-0.08571661119534217</v>
+      </c>
+      <c r="F44">
+        <v>-0.05574100740634901</v>
+      </c>
+      <c r="G44">
+        <v>-0.02699894991849936</v>
+      </c>
+      <c r="H44">
+        <v>-0.01223681811490654</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02569236967354263</v>
+        <v>0.03418469038561797</v>
       </c>
       <c r="C46">
-        <v>0.01536435900641091</v>
+        <v>-0.01241583075249218</v>
       </c>
       <c r="D46">
-        <v>-0.02621640846231492</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03408467193136428</v>
+      </c>
+      <c r="E46">
+        <v>-0.0348440430477926</v>
+      </c>
+      <c r="F46">
+        <v>-0.01531514490092002</v>
+      </c>
+      <c r="G46">
+        <v>0.007498326404788033</v>
+      </c>
+      <c r="H46">
+        <v>-0.03693007734455639</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.03065826761790208</v>
+        <v>0.03822379134949788</v>
       </c>
       <c r="C47">
-        <v>0.02437774560539428</v>
+        <v>-0.0205303178080655</v>
       </c>
       <c r="D47">
-        <v>-0.01132168272445296</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.00955354442423573</v>
+      </c>
+      <c r="E47">
+        <v>-0.04620302049456135</v>
+      </c>
+      <c r="F47">
+        <v>-0.009231812179612229</v>
+      </c>
+      <c r="G47">
+        <v>0.04378944716412431</v>
+      </c>
+      <c r="H47">
+        <v>-0.02644276287968648</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.03405955289745674</v>
+        <v>0.03853665844060079</v>
       </c>
       <c r="C48">
-        <v>0.01785009618420991</v>
+        <v>-0.01109505562156386</v>
       </c>
       <c r="D48">
-        <v>-0.03180275616185634</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01947354345122086</v>
+      </c>
+      <c r="E48">
+        <v>-0.04085988877200747</v>
+      </c>
+      <c r="F48">
+        <v>-0.006963526946251462</v>
+      </c>
+      <c r="G48">
+        <v>-0.01323719497835761</v>
+      </c>
+      <c r="H48">
+        <v>-0.04188988430615854</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>-0.1614038779834363</v>
+        <v>0.1892192109652902</v>
       </c>
       <c r="C49">
-        <v>0.05101297047850081</v>
+        <v>-0.03218594685682184</v>
       </c>
       <c r="D49">
-        <v>0.008073162062224332</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.02842982594100634</v>
+      </c>
+      <c r="E49">
+        <v>0.1554830183243086</v>
+      </c>
+      <c r="F49">
+        <v>-0.06003200686609501</v>
+      </c>
+      <c r="G49">
+        <v>0.06164977784007886</v>
+      </c>
+      <c r="H49">
+        <v>0.2286975941403474</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.04055308673495782</v>
+        <v>0.04642134265012507</v>
       </c>
       <c r="C50">
-        <v>0.02099995609055955</v>
+        <v>-0.01421640587226781</v>
       </c>
       <c r="D50">
-        <v>-0.03999935696347935</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.0331871879981902</v>
+      </c>
+      <c r="E50">
+        <v>-0.04302670647475995</v>
+      </c>
+      <c r="F50">
+        <v>-0.01462462941186713</v>
+      </c>
+      <c r="G50">
+        <v>0.02252673352751867</v>
+      </c>
+      <c r="H50">
+        <v>-0.06584195856598611</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.028438009562352</v>
+        <v>0.03060072959551733</v>
       </c>
       <c r="C51">
-        <v>0.01020671713414801</v>
+        <v>-0.004296707776590627</v>
       </c>
       <c r="D51">
-        <v>-0.009206594183484459</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01089507785344207</v>
+      </c>
+      <c r="E51">
+        <v>-0.01386415706988387</v>
+      </c>
+      <c r="F51">
+        <v>-0.01630003901420074</v>
+      </c>
+      <c r="G51">
+        <v>0.0009857588985057104</v>
+      </c>
+      <c r="H51">
+        <v>-0.0006649823586150662</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1542513873560631</v>
+        <v>0.1629414828496183</v>
       </c>
       <c r="C53">
-        <v>0.07203100670640342</v>
+        <v>-0.04967671812033281</v>
       </c>
       <c r="D53">
-        <v>-0.01001608533354029</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01956960162804652</v>
+      </c>
+      <c r="E53">
+        <v>0.03027633383294537</v>
+      </c>
+      <c r="F53">
+        <v>-0.01625874228804637</v>
+      </c>
+      <c r="G53">
+        <v>0.02473138187816134</v>
+      </c>
+      <c r="H53">
+        <v>-0.1768224372495918</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.05783433463131162</v>
+        <v>0.058484222957786</v>
       </c>
       <c r="C54">
-        <v>0.0246051089827416</v>
+        <v>-0.01381060714591101</v>
       </c>
       <c r="D54">
-        <v>-0.02108973885280684</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01536602910031633</v>
+      </c>
+      <c r="E54">
+        <v>-0.04581004979449092</v>
+      </c>
+      <c r="F54">
+        <v>-0.006786485711516685</v>
+      </c>
+      <c r="G54">
+        <v>-0.01480064233562458</v>
+      </c>
+      <c r="H54">
+        <v>-0.05161290724031795</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.09975921494284999</v>
+        <v>0.1039361058577607</v>
       </c>
       <c r="C55">
-        <v>0.04953754782853651</v>
+        <v>-0.03337110911595891</v>
       </c>
       <c r="D55">
-        <v>-0.02009205494191957</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.02359844629088862</v>
+      </c>
+      <c r="E55">
+        <v>-0.01063685578637769</v>
+      </c>
+      <c r="F55">
+        <v>-0.01545301541777</v>
+      </c>
+      <c r="G55">
+        <v>0.01626838859083177</v>
+      </c>
+      <c r="H55">
+        <v>-0.1536805866646665</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1511538173775082</v>
+        <v>0.1622097179138287</v>
       </c>
       <c r="C56">
-        <v>0.08598934273870397</v>
+        <v>-0.06231115886716322</v>
       </c>
       <c r="D56">
-        <v>-0.01523908057611239</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.02234569609551621</v>
+      </c>
+      <c r="E56">
+        <v>0.02274584525301675</v>
+      </c>
+      <c r="F56">
+        <v>-0.03098389242342369</v>
+      </c>
+      <c r="G56">
+        <v>0.0393334911256014</v>
+      </c>
+      <c r="H56">
+        <v>-0.1727254406855404</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1302903159134596</v>
+        <v>0.1009272434235249</v>
       </c>
       <c r="C58">
-        <v>-0.002332165371589511</v>
+        <v>0.04328432498852735</v>
       </c>
       <c r="D58">
-        <v>-0.03065082830199975</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.03340889855730929</v>
+      </c>
+      <c r="E58">
+        <v>-0.1426629048935482</v>
+      </c>
+      <c r="F58">
+        <v>0.005099117195960652</v>
+      </c>
+      <c r="G58">
+        <v>0.01262400562096479</v>
+      </c>
+      <c r="H58">
+        <v>0.2269725393541418</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1221361246007092</v>
+        <v>0.1365389805673824</v>
       </c>
       <c r="C59">
-        <v>0.07152801897028266</v>
+        <v>-0.09264831936024241</v>
       </c>
       <c r="D59">
-        <v>0.3676206000973851</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.3634796289085147</v>
+      </c>
+      <c r="E59">
+        <v>-0.0271117899954642</v>
+      </c>
+      <c r="F59">
+        <v>-0.01476022468073362</v>
+      </c>
+      <c r="G59">
+        <v>0.01869240673640928</v>
+      </c>
+      <c r="H59">
+        <v>-0.000726970615830553</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2052546048341758</v>
+        <v>0.2342227115087689</v>
       </c>
       <c r="C60">
-        <v>0.09235182935334067</v>
+        <v>-0.06402501366802869</v>
       </c>
       <c r="D60">
-        <v>-0.02010693479468332</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04386479969697756</v>
+      </c>
+      <c r="E60">
+        <v>0.09851112799542587</v>
+      </c>
+      <c r="F60">
+        <v>-0.05795064739474892</v>
+      </c>
+      <c r="G60">
+        <v>-0.0204630862019976</v>
+      </c>
+      <c r="H60">
+        <v>0.1446463807821693</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.08291827342511299</v>
+        <v>0.08948048349120745</v>
       </c>
       <c r="C61">
-        <v>0.05060962985460025</v>
+        <v>-0.03639311150629788</v>
       </c>
       <c r="D61">
-        <v>-0.04406384799863684</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04165800732036443</v>
+      </c>
+      <c r="E61">
+        <v>-0.0006340044923986949</v>
+      </c>
+      <c r="F61">
+        <v>-0.001335211520272005</v>
+      </c>
+      <c r="G61">
+        <v>0.0005147766983166017</v>
+      </c>
+      <c r="H61">
+        <v>-0.06262529911167818</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>-0.1313518224286003</v>
+        <v>0.1386332284189568</v>
       </c>
       <c r="C62">
-        <v>0.05921578025637</v>
+        <v>-0.03664173558081503</v>
       </c>
       <c r="D62">
-        <v>-0.02034428503308378</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.03339380709923661</v>
+      </c>
+      <c r="E62">
+        <v>0.05886494325306996</v>
+      </c>
+      <c r="F62">
+        <v>-0.01053791979439523</v>
+      </c>
+      <c r="G62">
+        <v>-0.000575291195498355</v>
+      </c>
+      <c r="H62">
+        <v>-0.1792578409884351</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.05144160802843532</v>
+        <v>0.05127499810140797</v>
       </c>
       <c r="C63">
-        <v>0.02308563866781687</v>
+        <v>-0.01284660695749843</v>
       </c>
       <c r="D63">
-        <v>-0.02156327918367125</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01977722794248849</v>
+      </c>
+      <c r="E63">
+        <v>-0.04836110224400885</v>
+      </c>
+      <c r="F63">
+        <v>0.007449886426422611</v>
+      </c>
+      <c r="G63">
+        <v>-0.02032924344273166</v>
+      </c>
+      <c r="H63">
+        <v>-0.0527896895479674</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.1033890289079595</v>
+        <v>0.1078615092373647</v>
       </c>
       <c r="C64">
-        <v>0.03204077321863082</v>
+        <v>-0.0165569711524046</v>
       </c>
       <c r="D64">
-        <v>-0.04403234918542298</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.03209023339023885</v>
+      </c>
+      <c r="E64">
+        <v>-0.031280337248925</v>
+      </c>
+      <c r="F64">
+        <v>-0.03710318934385188</v>
+      </c>
+      <c r="G64">
+        <v>-0.04689252405712283</v>
+      </c>
+      <c r="H64">
+        <v>-0.04602695422611244</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.1267523828964806</v>
+        <v>0.126621996686897</v>
       </c>
       <c r="C65">
-        <v>0.05861948922840032</v>
+        <v>-0.03870406872445892</v>
       </c>
       <c r="D65">
-        <v>0.01503848480776132</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.007123915674055172</v>
+      </c>
+      <c r="E65">
+        <v>-0.004125748932640441</v>
+      </c>
+      <c r="F65">
+        <v>-0.05498223279021464</v>
+      </c>
+      <c r="G65">
+        <v>-0.06225213826664761</v>
+      </c>
+      <c r="H65">
+        <v>0.150415060024715</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.1485109875215297</v>
+        <v>0.1548600858016182</v>
       </c>
       <c r="C66">
-        <v>0.06901909862823383</v>
+        <v>-0.04024096643876907</v>
       </c>
       <c r="D66">
-        <v>-0.1114196119642748</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.09648471393126602</v>
+      </c>
+      <c r="E66">
+        <v>0.02288073415540435</v>
+      </c>
+      <c r="F66">
+        <v>-0.009879708713477649</v>
+      </c>
+      <c r="G66">
+        <v>-0.04083235702726539</v>
+      </c>
+      <c r="H66">
+        <v>-0.1141088539042927</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.07448594763518772</v>
+        <v>0.08457476620241682</v>
       </c>
       <c r="C67">
-        <v>0.01017864324333646</v>
+        <v>-0.001735759767559043</v>
       </c>
       <c r="D67">
-        <v>-0.02086548669688946</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.02961109324680768</v>
+      </c>
+      <c r="E67">
+        <v>-0.02091022262854705</v>
+      </c>
+      <c r="F67">
+        <v>-0.02110794334753442</v>
+      </c>
+      <c r="G67">
+        <v>0.008816377431423111</v>
+      </c>
+      <c r="H67">
+        <v>-0.0418590539158034</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.05844749717586237</v>
+        <v>0.05691045672095739</v>
       </c>
       <c r="C68">
-        <v>0.04543379424569461</v>
+        <v>-0.06342243090839288</v>
       </c>
       <c r="D68">
-        <v>0.2545687802926399</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2688430521157848</v>
+      </c>
+      <c r="E68">
+        <v>-0.03812366993524227</v>
+      </c>
+      <c r="F68">
+        <v>-0.01370761727389127</v>
+      </c>
+      <c r="G68">
+        <v>0.01375850891191681</v>
+      </c>
+      <c r="H68">
+        <v>-0.007497559608086007</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.0520325507789624</v>
+        <v>0.05298494511840843</v>
       </c>
       <c r="C69">
-        <v>0.01614651881978432</v>
+        <v>-0.005524297049436955</v>
       </c>
       <c r="D69">
-        <v>-0.0203001519509635</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01587076741364591</v>
+      </c>
+      <c r="E69">
+        <v>-0.02609887253999373</v>
+      </c>
+      <c r="F69">
+        <v>0.007873768277649334</v>
+      </c>
+      <c r="G69">
+        <v>0.02352235730495144</v>
+      </c>
+      <c r="H69">
+        <v>-0.04866877082740544</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>-0.004772015830475601</v>
+        <v>0.02742561283467242</v>
       </c>
       <c r="C70">
-        <v>-0.00614824169316196</v>
+        <v>0.001464298007186889</v>
       </c>
       <c r="D70">
-        <v>-0.003295328512000049</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.005706280568833083</v>
+      </c>
+      <c r="E70">
+        <v>0.02301227666826018</v>
+      </c>
+      <c r="F70">
+        <v>-0.01501586274151599</v>
+      </c>
+      <c r="G70">
+        <v>0.02831962807989323</v>
+      </c>
+      <c r="H70">
+        <v>0.02315942466564061</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.05786142526520781</v>
+        <v>0.05897125600606859</v>
       </c>
       <c r="C71">
-        <v>0.04550133515393424</v>
+        <v>-0.06820301946532446</v>
       </c>
       <c r="D71">
-        <v>0.2936114575412492</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2946702800804547</v>
+      </c>
+      <c r="E71">
+        <v>-0.03448814821100755</v>
+      </c>
+      <c r="F71">
+        <v>-0.04265983674855808</v>
+      </c>
+      <c r="G71">
+        <v>0.002204182046846545</v>
+      </c>
+      <c r="H71">
+        <v>-0.008853577257178391</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1417843520449775</v>
+        <v>0.1439660915480298</v>
       </c>
       <c r="C72">
-        <v>0.06097545321329236</v>
+        <v>-0.03434992591727735</v>
       </c>
       <c r="D72">
-        <v>-0.0005177075576532303</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.0007608162974326398</v>
+      </c>
+      <c r="E72">
+        <v>0.08771157888655101</v>
+      </c>
+      <c r="F72">
+        <v>0.1653721055140918</v>
+      </c>
+      <c r="G72">
+        <v>-0.1196701281713389</v>
+      </c>
+      <c r="H72">
+        <v>-0.01618520893363348</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2845379300855459</v>
+        <v>0.2895039025330791</v>
       </c>
       <c r="C73">
-        <v>0.1002051498171238</v>
+        <v>-0.03859930059229116</v>
       </c>
       <c r="D73">
-        <v>-0.04212338719180096</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.09241663133987472</v>
+      </c>
+      <c r="E73">
+        <v>0.2130570408025488</v>
+      </c>
+      <c r="F73">
+        <v>-0.09766049592177282</v>
+      </c>
+      <c r="G73">
+        <v>0.1349387778892437</v>
+      </c>
+      <c r="H73">
+        <v>0.5082792344845104</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.08093955271228692</v>
+        <v>0.09170147508267737</v>
       </c>
       <c r="C74">
-        <v>0.07567292507787382</v>
+        <v>-0.06076330822725259</v>
       </c>
       <c r="D74">
-        <v>-0.01042137997686246</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.03135751917960484</v>
+      </c>
+      <c r="E74">
+        <v>0.004032624321638906</v>
+      </c>
+      <c r="F74">
+        <v>-0.0008591092652026294</v>
+      </c>
+      <c r="G74">
+        <v>0.05492337270234193</v>
+      </c>
+      <c r="H74">
+        <v>-0.1118852029316533</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.09657453513961194</v>
+        <v>0.1016231462164987</v>
       </c>
       <c r="C75">
-        <v>0.04833428539849822</v>
+        <v>-0.0267100507598909</v>
       </c>
       <c r="D75">
-        <v>-0.005023492933695443</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.01432657503648048</v>
+      </c>
+      <c r="E75">
+        <v>-0.003262401642844793</v>
+      </c>
+      <c r="F75">
+        <v>-0.02361716223336264</v>
+      </c>
+      <c r="G75">
+        <v>0.02555027210991001</v>
+      </c>
+      <c r="H75">
+        <v>-0.1126029771228366</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1320120759032708</v>
+        <v>0.1416257406444728</v>
       </c>
       <c r="C76">
-        <v>0.08063795416707241</v>
+        <v>-0.05801953222430702</v>
       </c>
       <c r="D76">
-        <v>-0.0427664185980671</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.04847987205721874</v>
+      </c>
+      <c r="E76">
+        <v>-0.0172719519577598</v>
+      </c>
+      <c r="F76">
+        <v>-0.04681562169127985</v>
+      </c>
+      <c r="G76">
+        <v>0.01712458457512175</v>
+      </c>
+      <c r="H76">
+        <v>-0.1952855134897011</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1174183351881091</v>
+        <v>0.1076186566687607</v>
       </c>
       <c r="C77">
-        <v>0.009592901469307307</v>
+        <v>0.01694131206226265</v>
       </c>
       <c r="D77">
-        <v>-0.06478092907355316</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.02349571065899763</v>
+      </c>
+      <c r="E77">
+        <v>-0.02208913886997799</v>
+      </c>
+      <c r="F77">
+        <v>-0.1039734589593299</v>
+      </c>
+      <c r="G77">
+        <v>-0.8901561301216926</v>
+      </c>
+      <c r="H77">
+        <v>0.0840867936527218</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.1061259684837233</v>
+        <v>0.1449301237113405</v>
       </c>
       <c r="C78">
-        <v>0.0365936303384272</v>
+        <v>-0.03199049972019966</v>
       </c>
       <c r="D78">
-        <v>-0.08359611223444516</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.07984349380249511</v>
+      </c>
+      <c r="E78">
+        <v>-0.05549354742354757</v>
+      </c>
+      <c r="F78">
+        <v>-0.05102702281259049</v>
+      </c>
+      <c r="G78">
+        <v>-0.08593190400482303</v>
+      </c>
+      <c r="H78">
+        <v>0.02806049925411036</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.1481081685939252</v>
+        <v>0.1518420003636289</v>
       </c>
       <c r="C79">
-        <v>0.06579681545233901</v>
+        <v>-0.03870627319458385</v>
       </c>
       <c r="D79">
-        <v>-0.02655294608814857</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.02653467321162552</v>
+      </c>
+      <c r="E79">
+        <v>0.01804497653232191</v>
+      </c>
+      <c r="F79">
+        <v>-0.02273146953067492</v>
+      </c>
+      <c r="G79">
+        <v>0.04271318166910882</v>
+      </c>
+      <c r="H79">
+        <v>-0.1682932546609349</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.04229470901578261</v>
+        <v>0.04348609892888345</v>
       </c>
       <c r="C80">
-        <v>0.01968676474775025</v>
+        <v>-0.01463964137802625</v>
       </c>
       <c r="D80">
-        <v>-0.02810177137964931</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01138404521823103</v>
+      </c>
+      <c r="E80">
+        <v>0.02921020741195743</v>
+      </c>
+      <c r="F80">
+        <v>-0.009975073452071291</v>
+      </c>
+      <c r="G80">
+        <v>0.02299295434842426</v>
+      </c>
+      <c r="H80">
+        <v>-0.03696402612580381</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1182112522092565</v>
+        <v>0.1202368543310594</v>
       </c>
       <c r="C81">
-        <v>0.06014681586173067</v>
+        <v>-0.03739987445586176</v>
       </c>
       <c r="D81">
-        <v>-0.0293364026741136</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.02359544514267215</v>
+      </c>
+      <c r="E81">
+        <v>-0.008938853384098564</v>
+      </c>
+      <c r="F81">
+        <v>-0.0188419625179263</v>
+      </c>
+      <c r="G81">
+        <v>0.05858945802978295</v>
+      </c>
+      <c r="H81">
+        <v>-0.151554046085208</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.1306308289466976</v>
+        <v>0.1314098362107967</v>
       </c>
       <c r="C82">
-        <v>0.07059653252072329</v>
+        <v>-0.04754093025391797</v>
       </c>
       <c r="D82">
-        <v>-0.01471519872255298</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.02638702860525175</v>
+      </c>
+      <c r="E82">
+        <v>0.01625224739720301</v>
+      </c>
+      <c r="F82">
+        <v>-0.05392437835377659</v>
+      </c>
+      <c r="G82">
+        <v>0.05428175600280706</v>
+      </c>
+      <c r="H82">
+        <v>-0.2144921532002734</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.07493914274493448</v>
+        <v>0.08567699399479864</v>
       </c>
       <c r="C83">
-        <v>-0.01562449521611812</v>
+        <v>0.02860922391523808</v>
       </c>
       <c r="D83">
-        <v>-0.02935840918420698</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03243644783305973</v>
+      </c>
+      <c r="E83">
+        <v>-0.01939083277173042</v>
+      </c>
+      <c r="F83">
+        <v>-0.05824360403993604</v>
+      </c>
+      <c r="G83">
+        <v>0.0762489569763885</v>
+      </c>
+      <c r="H83">
+        <v>0.04856113816340379</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.02946560872691794</v>
+        <v>0.03748052085595985</v>
       </c>
       <c r="C84">
-        <v>0.02879202465664873</v>
+        <v>-0.02346099774374549</v>
       </c>
       <c r="D84">
-        <v>-0.02765170683421721</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.03091910427107139</v>
+      </c>
+      <c r="E84">
+        <v>-0.0275464223433251</v>
+      </c>
+      <c r="F84">
+        <v>0.05019873794025258</v>
+      </c>
+      <c r="G84">
+        <v>0.0640460820037228</v>
+      </c>
+      <c r="H84">
+        <v>-0.003509310772261792</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1209924522531628</v>
+        <v>0.1225926351464772</v>
       </c>
       <c r="C85">
-        <v>0.04647046707106003</v>
+        <v>-0.02425388694549256</v>
       </c>
       <c r="D85">
-        <v>-0.01519704586821316</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01963748833894938</v>
+      </c>
+      <c r="E85">
+        <v>-0.01425956934181867</v>
+      </c>
+      <c r="F85">
+        <v>-0.03829203565556159</v>
+      </c>
+      <c r="G85">
+        <v>0.03504407761189401</v>
+      </c>
+      <c r="H85">
+        <v>-0.154285236268439</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.05400826419847149</v>
+        <v>0.05817460522740945</v>
       </c>
       <c r="C86">
-        <v>0.02217669559293833</v>
+        <v>-0.01215517339770646</v>
       </c>
       <c r="D86">
-        <v>-0.03333295520697693</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.03091358105252872</v>
+      </c>
+      <c r="E86">
+        <v>-0.05619234999421382</v>
+      </c>
+      <c r="F86">
+        <v>-0.02659708529219352</v>
+      </c>
+      <c r="G86">
+        <v>0.02472434968877503</v>
+      </c>
+      <c r="H86">
+        <v>0.008815696021059066</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.1185559242729154</v>
+        <v>0.1222704499273498</v>
       </c>
       <c r="C87">
-        <v>0.06838640521587319</v>
+        <v>-0.03706771120644321</v>
       </c>
       <c r="D87">
-        <v>-0.07673867937933795</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.07101073375579117</v>
+      </c>
+      <c r="E87">
+        <v>-0.01943138269731319</v>
+      </c>
+      <c r="F87">
+        <v>-0.008615842916970859</v>
+      </c>
+      <c r="G87">
+        <v>-0.1388600216324633</v>
+      </c>
+      <c r="H87">
+        <v>0.03274319507219775</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.05311487722132757</v>
+        <v>0.06061928955119966</v>
       </c>
       <c r="C88">
-        <v>0.02848766819143759</v>
+        <v>-0.01989628034912904</v>
       </c>
       <c r="D88">
-        <v>-0.02220425772189366</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.03471471802211574</v>
+      </c>
+      <c r="E88">
+        <v>-0.01738912466886541</v>
+      </c>
+      <c r="F88">
+        <v>-0.009835125632172034</v>
+      </c>
+      <c r="G88">
+        <v>-0.005233661146102055</v>
+      </c>
+      <c r="H88">
+        <v>-0.05688220383965411</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.08800143482979292</v>
+        <v>0.09487383958624446</v>
       </c>
       <c r="C89">
-        <v>0.0676644431767227</v>
+        <v>-0.0915650331955401</v>
       </c>
       <c r="D89">
-        <v>0.3263981722592845</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.3482685155364844</v>
+      </c>
+      <c r="E89">
+        <v>-0.0711700415357651</v>
+      </c>
+      <c r="F89">
+        <v>-0.07631486577188451</v>
+      </c>
+      <c r="G89">
+        <v>0.0208055073560158</v>
+      </c>
+      <c r="H89">
+        <v>-0.00331563620435271</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.07453971874539124</v>
+        <v>0.07771708066001548</v>
       </c>
       <c r="C90">
-        <v>0.05463165074472629</v>
+        <v>-0.07427553241353559</v>
       </c>
       <c r="D90">
-        <v>0.3103206586205201</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.3032145352670487</v>
+      </c>
+      <c r="E90">
+        <v>-0.0668430534584691</v>
+      </c>
+      <c r="F90">
+        <v>-0.001572002690529776</v>
+      </c>
+      <c r="G90">
+        <v>0.006477537850684328</v>
+      </c>
+      <c r="H90">
+        <v>-0.002975964825823552</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.08893484370502167</v>
+        <v>0.09096601626682455</v>
       </c>
       <c r="C91">
-        <v>0.05141951099432635</v>
+        <v>-0.03098207777370366</v>
       </c>
       <c r="D91">
-        <v>-0.02387109564541668</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.03123886018453655</v>
+      </c>
+      <c r="E91">
+        <v>-0.00715721192236196</v>
+      </c>
+      <c r="F91">
+        <v>-0.004337305509373525</v>
+      </c>
+      <c r="G91">
+        <v>0.05137450943569183</v>
+      </c>
+      <c r="H91">
+        <v>-0.08462205040760314</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.07467686338232134</v>
+        <v>0.07770826163209264</v>
       </c>
       <c r="C92">
-        <v>0.07090830607103935</v>
+        <v>-0.09375394065893335</v>
       </c>
       <c r="D92">
-        <v>0.3415092345308282</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.3443076993966909</v>
+      </c>
+      <c r="E92">
+        <v>-0.0410161278136165</v>
+      </c>
+      <c r="F92">
+        <v>-0.04840156219520375</v>
+      </c>
+      <c r="G92">
+        <v>-0.0188549285940002</v>
+      </c>
+      <c r="H92">
+        <v>-0.01516188416054271</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.06536196657448472</v>
+        <v>0.07488600868326475</v>
       </c>
       <c r="C93">
-        <v>0.06151863267484691</v>
+        <v>-0.08761487921892032</v>
       </c>
       <c r="D93">
-        <v>0.3099336925134757</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.3066877369405694</v>
+      </c>
+      <c r="E93">
+        <v>-0.02447546695585766</v>
+      </c>
+      <c r="F93">
+        <v>-0.03846397233583635</v>
+      </c>
+      <c r="G93">
+        <v>-0.01780368401010355</v>
+      </c>
+      <c r="H93">
+        <v>0.01117907841155294</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.1352441383159629</v>
+        <v>0.1291574313531806</v>
       </c>
       <c r="C94">
-        <v>0.04506749200386924</v>
+        <v>-0.01473106660203596</v>
       </c>
       <c r="D94">
-        <v>-0.03512858771152239</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04419196896522996</v>
+      </c>
+      <c r="E94">
+        <v>0.01641983364066506</v>
+      </c>
+      <c r="F94">
+        <v>-0.01618002879213329</v>
+      </c>
+      <c r="G94">
+        <v>0.06267525355484886</v>
+      </c>
+      <c r="H94">
+        <v>-0.09982598242222512</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1233658230701871</v>
+        <v>0.1286720176537764</v>
       </c>
       <c r="C95">
-        <v>0.02794279316472087</v>
+        <v>-0.0007314989470796093</v>
       </c>
       <c r="D95">
-        <v>-0.06598277980253089</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.06666438311009604</v>
+      </c>
+      <c r="E95">
+        <v>-0.01490756967833919</v>
+      </c>
+      <c r="F95">
+        <v>-0.0410083572255468</v>
+      </c>
+      <c r="G95">
+        <v>-0.01285932385248297</v>
+      </c>
+      <c r="H95">
+        <v>0.03451872533376275</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>-0.2195861005587003</v>
+        <v>0.2059271886148905</v>
       </c>
       <c r="C97">
-        <v>0.04150585145570548</v>
+        <v>0.0028174553601323</v>
       </c>
       <c r="D97">
-        <v>0.1066653200139753</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.08409615935078971</v>
+      </c>
+      <c r="E97">
+        <v>0.2255427032220455</v>
+      </c>
+      <c r="F97">
+        <v>0.898798361305184</v>
+      </c>
+      <c r="G97">
+        <v>-0.0693413598010254</v>
+      </c>
+      <c r="H97">
+        <v>-0.01786760362271505</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.250478411564092</v>
+        <v>0.2764272110744599</v>
       </c>
       <c r="C98">
-        <v>0.06270439466298611</v>
+        <v>-0.0240820662891603</v>
       </c>
       <c r="D98">
-        <v>-0.03421427106156958</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.05396025916767002</v>
+      </c>
+      <c r="E98">
+        <v>0.179747441055562</v>
+      </c>
+      <c r="F98">
+        <v>-0.0706601018325459</v>
+      </c>
+      <c r="G98">
+        <v>0.2385342424483583</v>
+      </c>
+      <c r="H98">
+        <v>0.2476467201463751</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>-0.4092608345575835</v>
+        <v>0.2717523311286388</v>
       </c>
       <c r="C99">
-        <v>-0.8956706993335999</v>
+        <v>0.9326182498271555</v>
       </c>
       <c r="D99">
-        <v>0.04709364765159173</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.1548168532322035</v>
+      </c>
+      <c r="E99">
+        <v>-0.07076016430648935</v>
+      </c>
+      <c r="F99">
+        <v>-0.05548564510509373</v>
+      </c>
+      <c r="G99">
+        <v>0.02443382082060247</v>
+      </c>
+      <c r="H99">
+        <v>-0.06896581825902794</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.04196233141137188</v>
+        <v>0.0484124640334978</v>
       </c>
       <c r="C101">
-        <v>0.02903320252344285</v>
+        <v>-0.02511761949625593</v>
       </c>
       <c r="D101">
-        <v>-0.009701228617940726</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.008715143057073866</v>
+      </c>
+      <c r="E101">
+        <v>-0.06089580673566478</v>
+      </c>
+      <c r="F101">
+        <v>-0.009669880514205783</v>
+      </c>
+      <c r="G101">
+        <v>0.00851326627302122</v>
+      </c>
+      <c r="H101">
+        <v>-0.07572359839048005</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
